--- a/common-npoi/src/main/resources/xlsx/pageforeach_temp.xlsx
+++ b/common-npoi/src/main/resources/xlsx/pageforeach_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\common-modules\common-npoi\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7075AD31-6D5B-4F28-ADDC-B8BF3ACEB8E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2375D4C1-FEBD-4D65-A9CD-E4E531F5780C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>iftag true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>iftag true data</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>#pageforeach detail in ${list}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#each ${model}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
     </row>
     <row r="5" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -654,12 +654,12 @@
     </row>
     <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
     </row>
     <row r="15" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
